--- a/Excel Obstacle Course Advanced XTIMER.xlsx
+++ b/Excel Obstacle Course Advanced XTIMER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9BA9E-D3A9-485D-BFE4-5D5E1623920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07E0F54-F281-4EB3-89B7-110F31ABE35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,7 +642,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t> TO THE EXCEL OBSTACLE COURSE! Visit </a:t>
+            <a:t> TO THE EXCEL OBSTACLE COURSE ADVANCED! Visit </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600"/>
@@ -977,7 +977,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
@@ -1005,9 +1007,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1016,7 +1018,11 @@
             </a:rPr>
             <a:t>Obstacle:</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1029,9 +1035,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1040,7 +1046,11 @@
             </a:rPr>
             <a:t>Delete all blue rows and columns without deleting the gray cells.</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1052,7 +1062,11 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1065,9 +1079,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1076,7 +1090,11 @@
             </a:rPr>
             <a:t>The end result should be an 9R x 9C gray box, like below.</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1146,9 +1164,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6724650" cy="4448175"/>
     <xdr:sp macro="" textlink="">
@@ -1164,14 +1182,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1983675" y="1555913"/>
+          <a:off x="8105775" y="247650"/>
           <a:ext cx="6724650" cy="4448175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
@@ -1199,9 +1219,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1210,7 +1230,14 @@
             </a:rPr>
             <a:t>Obstacle:</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1223,9 +1250,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1234,7 +1261,14 @@
             </a:rPr>
             <a:t>Create a Pivot Table in this format using keyboard only (except to click on the field list checkboxes)</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1246,7 +1280,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1259,12 +1300,15 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Alt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>, D, P to bring up Pivot table wizard</a:t>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Alt, D, P to bring up Pivot table wizard</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1278,7 +1322,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
             <a:t>RCB, D (x2) to hide then unhide field list (which will put cursor inside the box)</a:t>
           </a:r>
         </a:p>
@@ -1292,7 +1343,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1305,10 +1363,16 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
             <a:t>RCB and arrows to add seletions to pivot table</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1320,7 +1384,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1333,9 +1404,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1344,7 +1415,14 @@
             </a:rPr>
             <a:t>Alt, JYPT</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1357,9 +1435,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1368,7 +1446,14 @@
             </a:rPr>
             <a:t>Alt, JYPR</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1381,9 +1466,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1392,7 +1477,14 @@
             </a:rPr>
             <a:t>Alt, JYTD</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1465,7 +1557,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
@@ -1493,9 +1587,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1504,7 +1598,14 @@
             </a:rPr>
             <a:t>Resize Columns A-D to autofit text</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1517,9 +1618,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1528,7 +1629,14 @@
             </a:rPr>
             <a:t>Resize Rows 19-27 to autofit text</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1540,7 +1648,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1552,7 +1667,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1565,9 +1687,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1576,7 +1698,14 @@
             </a:rPr>
             <a:t>Resize columns</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1589,9 +1718,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1600,7 +1729,14 @@
             </a:rPr>
             <a:t>Alt, HOI</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1612,7 +1748,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1625,9 +1768,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1636,7 +1779,14 @@
             </a:rPr>
             <a:t>Resize rows</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1649,9 +1799,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1660,7 +1810,14 @@
             </a:rPr>
             <a:t>Alt HOA</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1699,7 +1856,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
@@ -1727,9 +1886,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1738,7 +1897,14 @@
             </a:rPr>
             <a:t>Use "Styles" to make column A "Bad", Column B "Neutral", Column C "Good", and Column D "Normal"</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1751,9 +1917,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1762,7 +1928,14 @@
             </a:rPr>
             <a:t>as shown below</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1774,7 +1947,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1787,9 +1967,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1798,7 +1978,14 @@
             </a:rPr>
             <a:t>Alt HJ, arrows and enter</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1810,7 +1997,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1822,7 +2016,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1830,16 +2031,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285406</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>37418</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>256831</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85043</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1862,7 +2063,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7410450" y="1066800"/>
+          <a:off x="7962900" y="1314450"/>
           <a:ext cx="2752381" cy="5457143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1905,7 +2106,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
@@ -1933,9 +2136,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1944,7 +2147,14 @@
             </a:rPr>
             <a:t>Obstacle:</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1957,9 +2167,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -1968,7 +2178,14 @@
             </a:rPr>
             <a:t>Wrap the text for boxes in column A</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1980,7 +2197,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -1993,9 +2217,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -2004,7 +2228,14 @@
             </a:rPr>
             <a:t>Alt HW</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2043,7 +2274,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
@@ -2071,9 +2304,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -2082,7 +2315,14 @@
             </a:rPr>
             <a:t>Obstacle,</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2095,9 +2335,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -2106,7 +2346,14 @@
             </a:rPr>
             <a:t>Increase Font Sizes</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2118,7 +2365,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2131,9 +2385,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -2142,7 +2396,14 @@
             </a:rPr>
             <a:t>Alt, H FG - make larger</a:t>
           </a:r>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2155,9 +2416,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -2177,7 +2438,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2189,7 +2457,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2201,7 +2476,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2214,9 +2496,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -2225,7 +2507,14 @@
             </a:rPr>
             <a:t>Start looks like this-----&gt;</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2237,7 +2526,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2249,7 +2545,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2261,7 +2564,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2273,7 +2583,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2285,7 +2602,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2297,7 +2621,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2309,7 +2640,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2321,7 +2659,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2333,7 +2678,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2346,9 +2698,9 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400" b="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
               <a:ea typeface="Calibri"/>
@@ -2357,7 +2709,14 @@
             </a:rPr>
             <a:t>Finish looks like this-----&gt;</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2369,7 +2728,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2381,7 +2747,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2393,7 +2766,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr sz="1100"/>
+          <a:endParaRPr sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2401,10 +2781,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3657600" cy="1447800"/>
     <xdr:pic>
@@ -2426,7 +2806,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="1781175"/>
+          <a:off x="6515100" y="1924050"/>
           <a:ext cx="3657600" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2439,16 +2819,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>351927</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171269</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47127</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2471,7 +2851,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248400" y="3552825"/>
+          <a:off x="6524625" y="3848100"/>
           <a:ext cx="3980952" cy="1447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2519,42 +2899,50 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="BABABA"/>
           </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
             <a:t>NOTE: you must hold down CTRL and continue to tap Pg Up until you arrive at the Main Page</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -74617,8 +75005,8 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -74630,7 +75018,7 @@
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Obstacle Course Advanced XTIMER.xlsx
+++ b/Excel Obstacle Course Advanced XTIMER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07E0F54-F281-4EB3-89B7-110F31ABE35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24907FE-2074-4BDF-8A48-20505791BD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1090,6 +1090,316 @@
             </a:rPr>
             <a:t>The end result should be an 9R x 9C gray box, like below.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>HINTS:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> highlight column</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>and delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t> CTRL, tap Spacebar</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+              <a:sym typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Hold CTRL, tap minus sign</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> highlight row</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Shift, tap Spacebar</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hold CTRL, tap minus sign</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
           <a:endParaRPr sz="1400" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
@@ -1114,16 +1424,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>28573</xdr:rowOff>
+      <xdr:rowOff>47623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1146,7 +1456,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5753100" y="1533524"/>
+          <a:off x="6848475" y="1552574"/>
           <a:ext cx="3733800" cy="3467099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -75018,7 +75328,7 @@
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A4" sqref="A4:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Obstacle Course Advanced XTIMER.xlsx
+++ b/Excel Obstacle Course Advanced XTIMER.xlsx
@@ -5,22 +5,23 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\excelObstacleCourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24907FE-2074-4BDF-8A48-20505791BD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0027C7-B6A5-4D71-A700-983F114D488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAIN PAGE" sheetId="7" r:id="rId1"/>
-    <sheet name="START" sheetId="1" r:id="rId2"/>
-    <sheet name="pivot table" sheetId="2" r:id="rId3"/>
-    <sheet name="autofit" sheetId="3" r:id="rId4"/>
-    <sheet name="styles" sheetId="4" r:id="rId5"/>
-    <sheet name="wrap text" sheetId="5" r:id="rId6"/>
-    <sheet name="font size" sheetId="6" r:id="rId7"/>
-    <sheet name="FINAL" sheetId="8" r:id="rId8"/>
+    <sheet name="Creator's Message" sheetId="9" r:id="rId1"/>
+    <sheet name="MAIN PAGE" sheetId="7" r:id="rId2"/>
+    <sheet name="START" sheetId="1" r:id="rId3"/>
+    <sheet name="pivot table" sheetId="2" r:id="rId4"/>
+    <sheet name="autofit" sheetId="3" r:id="rId5"/>
+    <sheet name="styles" sheetId="4" r:id="rId6"/>
+    <sheet name="wrap text" sheetId="5" r:id="rId7"/>
+    <sheet name="font size" sheetId="6" r:id="rId8"/>
+    <sheet name="FINAL" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -578,6 +579,136 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA43A4E-F1D1-4685-9236-7FD16A41F201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="8000"/>
+            <a:t>Welcome!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t> show your appreciation for this </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>valuable, free resource, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Please subscribe to my </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>Please also share my videos so we can continue to</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>grow the audience and community!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
@@ -947,7 +1078,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1469,7 +1600,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1837,7 +1968,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2136,7 +2267,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2386,7 +2517,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2554,7 +2685,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3174,7 +3305,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3454,10 +3585,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166D7AFF-8DB9-4E48-AFF9-3230BE4A45AD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB5D66-BF9E-4538-8FEB-EFD038441FCE}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3553,7 +3699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -69230,7 +69376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
@@ -70533,7 +70679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
@@ -71727,7 +71873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
@@ -73252,7 +73398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
@@ -74309,7 +74455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
@@ -75320,7 +75466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0107BD9D-F9DB-403E-A35D-BE1EC34D921F}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
